--- a/DCMotorMathGraph.xlsx
+++ b/DCMotorMathGraph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faaiq\OneDrive\Desktop\UBC\third year\S2\ELEC 391\c5-elec391\c5-elec391\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6330294-C560-49E8-9419-AC61A5267BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E7FB74-313D-43E0-9702-57253E749D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{7A6435F0-5E09-46D0-9440-0555B2C06ED8}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7A6435F0-5E09-46D0-9440-0555B2C06ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Current vs RPM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>I (A)</t>
   </si>
@@ -57,6 +54,15 @@
   </si>
   <si>
     <t>PWM Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>120 or 180</t>
   </si>
 </sst>
 </file>
@@ -118,6 +124,1326 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duty Cycle (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D8C-4F16-8FBD-F178487688FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I (A)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4D8C-4F16-8FBD-F178487688FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="79879823"/>
+        <c:axId val="79880783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79879823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79880783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79880783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79879823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885AEAEE-C8C2-75A0-C5F2-FA7ECE9822A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,109 +1763,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9095AD0-E98A-4DE4-91DE-3497B3DE3264}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>10.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <f>$F$2*B3/100</f>
+        <f>$E$2*B3/100</f>
         <v>0.10800000000000001</v>
       </c>
       <c r="D3">
-        <f>530-(6.3/0.062)*(A3-0.11)</f>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">$F$2*B4/100</f>
+        <f t="shared" ref="C4:C67" si="0">$E$2*B4/100</f>
         <v>0.21600000000000003</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D67" si="1">530-(6.3/0.062)*(A4-0.11)</f>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f t="shared" ref="B5:B68" si="2">B4+1</f>
+        <f t="shared" ref="B5:B68" si="1">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>0.32400000000000007</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>0.43200000000000005</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.02</v>
+      </c>
       <c r="B7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C7">
@@ -547,69 +1865,55 @@
         <v>0.54</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>0.64800000000000013</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>0.75600000000000012</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>0.8640000000000001</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>0.97199999999999998</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.04</v>
+      </c>
       <c r="B12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12">
@@ -617,69 +1921,55 @@
         <v>1.08</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>1.1880000000000002</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>1.2960000000000003</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>1.4040000000000001</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>1.5120000000000002</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.1</v>
+      </c>
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17">
@@ -687,69 +1977,58 @@
         <v>1.62</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>1.7280000000000002</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>1.8360000000000003</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>1.944</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>2.052</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.15</v>
+      </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C22">
@@ -757,69 +2036,55 @@
         <v>2.16</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>2.2680000000000002</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>2.3760000000000003</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>2.484</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>2.5920000000000005</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.19</v>
+      </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C27">
@@ -827,39 +2092,30 @@
         <v>2.7</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>2.8080000000000003</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>2.9160000000000004</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>B29+1</f>
         <v>28</v>
@@ -868,28 +2124,23 @@
         <f t="shared" si="0"/>
         <v>3.0240000000000005</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>3.1320000000000006</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.22</v>
+      </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C32">
@@ -897,67 +2148,53 @@
         <v>3.24</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>3.3480000000000003</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
         <v>3.4560000000000004</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
         <v>3.5640000000000005</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
         <v>3.6720000000000006</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.25</v>
+      </c>
       <c r="B37">
         <f>B36+1</f>
         <v>35</v>
@@ -967,69 +2204,58 @@
         <v>3.78</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
         <v>3.8879999999999999</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
         <v>3.9960000000000004</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
         <v>4.1040000000000001</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
         <v>4.2120000000000006</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.26</v>
+      </c>
       <c r="B42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C42">
@@ -1037,69 +2263,55 @@
         <v>4.32</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
         <v>4.4279999999999999</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
         <v>4.5360000000000005</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
         <v>4.6440000000000001</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
         <v>4.7520000000000007</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.26500000000000001</v>
+      </c>
       <c r="B47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C47">
@@ -1107,53 +2319,43 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
         <v>4.968</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
         <v>5.0760000000000005</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
         <v>5.1840000000000011</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <f>B50+1</f>
         <v>49</v>
@@ -1162,14 +2364,13 @@
         <f t="shared" si="0"/>
         <v>5.2920000000000007</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="B52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C52">
@@ -1177,69 +2378,58 @@
         <v>5.4</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
         <v>5.5080000000000009</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
         <v>5.6160000000000005</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
         <v>5.7240000000000011</v>
       </c>
-      <c r="D55">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
         <v>5.8320000000000007</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.28100000000000003</v>
+      </c>
       <c r="B57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C57">
@@ -1247,69 +2437,55 @@
         <v>5.94</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
         <v>6.0480000000000009</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
         <v>6.1560000000000006</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
         <v>6.2640000000000011</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
         <v>6.3720000000000008</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.28399999999999997</v>
+      </c>
       <c r="B62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C62">
@@ -1317,39 +2493,30 @@
         <v>6.48</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
         <v>6.588000000000001</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
         <v>6.6960000000000006</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65">
         <f>B64+1</f>
         <v>63</v>
@@ -1358,28 +2525,23 @@
         <f t="shared" si="0"/>
         <v>6.8040000000000012</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
         <v>6.9120000000000008</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C67">
@@ -1387,504 +2549,392 @@
         <v>7.02</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C102" si="3">$F$2*B68/100</f>
+        <f t="shared" ref="C68:C102" si="2">$E$2*B68/100</f>
         <v>7.128000000000001</v>
       </c>
-      <c r="D68">
-        <f t="shared" ref="D68:D102" si="4">530-(6.3/0.062)*(A68-0.11)</f>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f t="shared" ref="B69:B72" si="5">B68+1</f>
+        <f t="shared" ref="B69:B72" si="3">B68+1</f>
         <v>67</v>
       </c>
       <c r="C69">
+        <f t="shared" si="2"/>
+        <v>7.2360000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70">
         <f t="shared" si="3"/>
-        <v>7.2360000000000007</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="C70">
+        <f t="shared" si="2"/>
+        <v>7.3440000000000012</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71">
         <f t="shared" si="3"/>
-        <v>7.3440000000000012</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="C71">
+        <f t="shared" si="2"/>
+        <v>7.4520000000000008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="B72">
         <f t="shared" si="3"/>
-        <v>7.4520000000000008</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.56</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73">
         <f>B72+1</f>
         <v>71</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.668000000000001</v>
       </c>
-      <c r="D73">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" ref="B74:B77" si="4">B73+1</f>
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>7.7759999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75">
         <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <f t="shared" ref="B74:B77" si="6">B73+1</f>
-        <v>72</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="3"/>
-        <v>7.7759999999999998</v>
-      </c>
-      <c r="D74">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>7.8840000000000012</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76">
         <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <f t="shared" si="6"/>
-        <v>73</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="3"/>
-        <v>7.8840000000000012</v>
-      </c>
-      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>7.9920000000000009</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="3"/>
-        <v>7.9920000000000009</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.1</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78">
         <f>B77+1</f>
         <v>76</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.2080000000000002</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79">
-        <f t="shared" ref="B79:B80" si="7">B78+1</f>
+        <f t="shared" ref="B79:B80" si="5">B78+1</f>
         <v>77</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.3160000000000007</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.4240000000000013</v>
       </c>
-      <c r="D80">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81">
         <f>B80+1</f>
         <v>79</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.532</v>
       </c>
-      <c r="D81">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.29799999999999999</v>
+      </c>
       <c r="B82">
-        <f t="shared" ref="B82:B89" si="8">B81+1</f>
+        <f t="shared" ref="B82:B89" si="6">B81+1</f>
         <v>80</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.64</v>
       </c>
-      <c r="D82">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.7480000000000011</v>
       </c>
-      <c r="D83">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.8559999999999999</v>
       </c>
-      <c r="D84">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.9640000000000004</v>
       </c>
-      <c r="D85">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.072000000000001</v>
       </c>
-      <c r="D86">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.29899999999999999</v>
+      </c>
       <c r="B87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.1800000000000015</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.2880000000000003</v>
       </c>
-      <c r="D88">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.3960000000000008</v>
       </c>
-      <c r="D89">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90">
         <f>B89+1</f>
         <v>88</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.5040000000000013</v>
       </c>
-      <c r="D90">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91">
-        <f t="shared" ref="B91:B99" si="9">B90+1</f>
+        <f t="shared" ref="B91:B99" si="7">B90+1</f>
         <v>89</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.6120000000000001</v>
       </c>
-      <c r="D91">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.3</v>
+      </c>
       <c r="B92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.7200000000000006</v>
       </c>
-      <c r="D92">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.8280000000000012</v>
       </c>
-      <c r="D93">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9359999999999999</v>
       </c>
-      <c r="D94">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.044</v>
       </c>
-      <c r="D95">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.152000000000001</v>
       </c>
-      <c r="D96">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.3</v>
+      </c>
       <c r="B97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.26</v>
       </c>
-      <c r="D97">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.368000000000002</v>
       </c>
-      <c r="D98">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.476000000000001</v>
       </c>
-      <c r="D99">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100">
         <f>B99+1</f>
         <v>98</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.584000000000001</v>
       </c>
-      <c r="D100">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101">
-        <f t="shared" ref="B101:B102" si="10">B100+1</f>
+        <f t="shared" ref="B101:B102" si="8">B100+1</f>
         <v>99</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.692</v>
       </c>
-      <c r="D101">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0.30199999999999999</v>
+      </c>
       <c r="B102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.8</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="4"/>
-        <v>541.17741935483866</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>